--- a/pools/sources/baederleben_berlin.xlsx
+++ b/pools/sources/baederleben_berlin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="939">
   <si>
     <t>Bad-ID</t>
   </si>
@@ -1804,9 +1804,6 @@
   </si>
   <si>
     <t>Sport Club Siemensstadt Berlin e.V.</t>
-  </si>
-  <si>
-    <t>Coronabedingte Schließung</t>
   </si>
   <si>
     <t>Kinderbecken</t>
@@ -15184,13 +15181,7 @@
         <v>143</v>
       </c>
       <c r="CR67" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT67" t="s">
-        <v>147</v>
-      </c>
-      <c r="CU67" t="s">
-        <v>596</v>
+        <v>143</v>
       </c>
       <c r="CV67" t="s">
         <v>143</v>
@@ -15232,7 +15223,7 @@
         <v>147</v>
       </c>
       <c r="ED67" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="68" spans="1:136">
@@ -15243,19 +15234,19 @@
         <v>136</v>
       </c>
       <c r="D68" t="s">
+        <v>597</v>
+      </c>
+      <c r="E68" t="s">
         <v>598</v>
-      </c>
-      <c r="E68" t="s">
-        <v>599</v>
       </c>
       <c r="F68">
         <v>12589</v>
       </c>
       <c r="G68" t="s">
+        <v>599</v>
+      </c>
+      <c r="K68" t="s">
         <v>600</v>
-      </c>
-      <c r="K68" t="s">
-        <v>601</v>
       </c>
       <c r="L68">
         <v>11000000</v>
@@ -15368,10 +15359,10 @@
         <v>136</v>
       </c>
       <c r="D69" t="s">
+        <v>601</v>
+      </c>
+      <c r="E69" t="s">
         <v>602</v>
-      </c>
-      <c r="E69" t="s">
-        <v>603</v>
       </c>
       <c r="F69">
         <v>12557</v>
@@ -15380,10 +15371,10 @@
         <v>139</v>
       </c>
       <c r="I69" t="s">
+        <v>603</v>
+      </c>
+      <c r="K69" t="s">
         <v>604</v>
-      </c>
-      <c r="K69" t="s">
-        <v>605</v>
       </c>
       <c r="L69">
         <v>11000000</v>
@@ -15499,10 +15490,10 @@
         <v>136</v>
       </c>
       <c r="D70" t="s">
+        <v>605</v>
+      </c>
+      <c r="E70" t="s">
         <v>606</v>
-      </c>
-      <c r="E70" t="s">
-        <v>607</v>
       </c>
       <c r="F70">
         <v>13503</v>
@@ -15511,7 +15502,7 @@
         <v>139</v>
       </c>
       <c r="K70" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L70">
         <v>11000000</v>
@@ -15621,16 +15612,16 @@
         <v>3958</v>
       </c>
       <c r="B71" t="s">
+        <v>608</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" t="s">
         <v>609</v>
       </c>
-      <c r="C71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>610</v>
-      </c>
-      <c r="E71" t="s">
-        <v>611</v>
       </c>
       <c r="F71">
         <v>10557</v>
@@ -15639,13 +15630,13 @@
         <v>139</v>
       </c>
       <c r="I71" t="s">
+        <v>611</v>
+      </c>
+      <c r="J71" t="s">
         <v>612</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>613</v>
-      </c>
-      <c r="K71" t="s">
-        <v>614</v>
       </c>
       <c r="L71">
         <v>11000000</v>
@@ -15663,13 +15654,13 @@
         <v>238</v>
       </c>
       <c r="Z71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA71" t="s">
         <v>238</v>
       </c>
       <c r="AB71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AD71">
         <v>39.5</v>
@@ -15753,7 +15744,7 @@
         <v>147</v>
       </c>
       <c r="DQ71" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="DS71" t="s">
         <v>143</v>
@@ -15773,10 +15764,10 @@
         <v>143</v>
       </c>
       <c r="D72" t="s">
+        <v>616</v>
+      </c>
+      <c r="E72" t="s">
         <v>617</v>
-      </c>
-      <c r="E72" t="s">
-        <v>618</v>
       </c>
       <c r="F72">
         <v>12359</v>
@@ -15788,10 +15779,10 @@
         <v>6035010</v>
       </c>
       <c r="J72" t="s">
+        <v>618</v>
+      </c>
+      <c r="K72" t="s">
         <v>619</v>
-      </c>
-      <c r="K72" t="s">
-        <v>620</v>
       </c>
       <c r="L72">
         <v>11000000</v>
@@ -15824,19 +15815,19 @@
         <v>6800000</v>
       </c>
       <c r="W72" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y72" t="s">
         <v>174</v>
       </c>
       <c r="Z72" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA72" t="s">
         <v>174</v>
       </c>
       <c r="AB72" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AC72">
         <v>84000</v>
@@ -15917,7 +15908,7 @@
         <v>143</v>
       </c>
       <c r="BH72" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BI72">
         <v>50</v>
@@ -15947,13 +15938,13 @@
         <v>147</v>
       </c>
       <c r="BS72" t="s">
+        <v>624</v>
+      </c>
+      <c r="BT72" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU72" t="s">
         <v>625</v>
-      </c>
-      <c r="BT72" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU72" t="s">
-        <v>626</v>
       </c>
       <c r="BV72">
         <v>5000</v>
@@ -15962,19 +15953,19 @@
         <v>242</v>
       </c>
       <c r="BX72" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="BY72">
         <v>500</v>
       </c>
       <c r="BZ72" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="CA72">
         <v>405</v>
       </c>
       <c r="CC72" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="CD72">
         <v>0</v>
@@ -16055,7 +16046,7 @@
         <v>143</v>
       </c>
       <c r="DQ72" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="DS72" t="s">
         <v>147</v>
@@ -16067,10 +16058,10 @@
         <v>143</v>
       </c>
       <c r="EE72" t="s">
+        <v>630</v>
+      </c>
+      <c r="EF72" t="s">
         <v>631</v>
-      </c>
-      <c r="EF72" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="73" spans="1:136">
@@ -16078,16 +16069,16 @@
         <v>6987</v>
       </c>
       <c r="B73" t="s">
+        <v>632</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" t="s">
         <v>633</v>
       </c>
-      <c r="C73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>634</v>
-      </c>
-      <c r="E73" t="s">
-        <v>635</v>
       </c>
       <c r="F73">
         <v>13585</v>
@@ -16096,10 +16087,10 @@
         <v>139</v>
       </c>
       <c r="I73" t="s">
+        <v>635</v>
+      </c>
+      <c r="K73" t="s">
         <v>636</v>
-      </c>
-      <c r="K73" t="s">
-        <v>637</v>
       </c>
       <c r="L73">
         <v>11000000</v>
@@ -16203,16 +16194,16 @@
         <v>6988</v>
       </c>
       <c r="B74" t="s">
+        <v>637</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" t="s">
         <v>638</v>
       </c>
-      <c r="C74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>639</v>
-      </c>
-      <c r="E74" t="s">
-        <v>640</v>
       </c>
       <c r="F74">
         <v>13587</v>
@@ -16221,10 +16212,10 @@
         <v>139</v>
       </c>
       <c r="I74" t="s">
+        <v>640</v>
+      </c>
+      <c r="K74" t="s">
         <v>641</v>
-      </c>
-      <c r="K74" t="s">
-        <v>642</v>
       </c>
       <c r="L74">
         <v>11000000</v>
@@ -16325,16 +16316,16 @@
         <v>6994</v>
       </c>
       <c r="B75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C75" t="s">
         <v>143</v>
       </c>
       <c r="D75" t="s">
+        <v>642</v>
+      </c>
+      <c r="E75" t="s">
         <v>643</v>
-      </c>
-      <c r="E75" t="s">
-        <v>644</v>
       </c>
       <c r="F75">
         <v>13629</v>
@@ -16343,10 +16334,10 @@
         <v>139</v>
       </c>
       <c r="I75" t="s">
+        <v>644</v>
+      </c>
+      <c r="K75" t="s">
         <v>645</v>
-      </c>
-      <c r="K75" t="s">
-        <v>646</v>
       </c>
       <c r="L75">
         <v>11000000</v>
@@ -16441,16 +16432,16 @@
         <v>6996</v>
       </c>
       <c r="B76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C76" t="s">
         <v>143</v>
       </c>
       <c r="D76" t="s">
+        <v>646</v>
+      </c>
+      <c r="E76" t="s">
         <v>647</v>
-      </c>
-      <c r="E76" t="s">
-        <v>648</v>
       </c>
       <c r="F76">
         <v>13585</v>
@@ -16459,10 +16450,10 @@
         <v>139</v>
       </c>
       <c r="I76" t="s">
+        <v>648</v>
+      </c>
+      <c r="K76" t="s">
         <v>649</v>
-      </c>
-      <c r="K76" t="s">
-        <v>650</v>
       </c>
       <c r="L76">
         <v>11000000</v>
@@ -16554,16 +16545,16 @@
         <v>7002</v>
       </c>
       <c r="B77" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C77" t="s">
         <v>143</v>
       </c>
       <c r="D77" t="s">
+        <v>650</v>
+      </c>
+      <c r="E77" t="s">
         <v>651</v>
-      </c>
-      <c r="E77" t="s">
-        <v>652</v>
       </c>
       <c r="F77">
         <v>13629</v>
@@ -16664,16 +16655,16 @@
         <v>7283</v>
       </c>
       <c r="B78" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C78" t="s">
         <v>143</v>
       </c>
       <c r="D78" t="s">
+        <v>652</v>
+      </c>
+      <c r="E78" t="s">
         <v>653</v>
-      </c>
-      <c r="E78" t="s">
-        <v>654</v>
       </c>
       <c r="F78">
         <v>13581</v>
@@ -16682,10 +16673,10 @@
         <v>139</v>
       </c>
       <c r="I78" t="s">
+        <v>654</v>
+      </c>
+      <c r="K78" t="s">
         <v>655</v>
-      </c>
-      <c r="K78" t="s">
-        <v>656</v>
       </c>
       <c r="L78">
         <v>11000000</v>
@@ -16792,16 +16783,16 @@
         <v>7889</v>
       </c>
       <c r="B79" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C79" t="s">
         <v>143</v>
       </c>
       <c r="D79" t="s">
+        <v>656</v>
+      </c>
+      <c r="E79" t="s">
         <v>657</v>
-      </c>
-      <c r="E79" t="s">
-        <v>658</v>
       </c>
       <c r="F79">
         <v>13581</v>
@@ -16810,10 +16801,10 @@
         <v>139</v>
       </c>
       <c r="I79" t="s">
+        <v>658</v>
+      </c>
+      <c r="K79" t="s">
         <v>659</v>
-      </c>
-      <c r="K79" t="s">
-        <v>660</v>
       </c>
       <c r="L79">
         <v>11000000</v>
@@ -16911,31 +16902,31 @@
         <v>7891</v>
       </c>
       <c r="B80" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C80" t="s">
         <v>143</v>
       </c>
       <c r="D80" t="s">
+        <v>660</v>
+      </c>
+      <c r="E80" t="s">
         <v>661</v>
-      </c>
-      <c r="E80" t="s">
-        <v>662</v>
       </c>
       <c r="F80">
         <v>13587</v>
       </c>
       <c r="G80" t="s">
+        <v>662</v>
+      </c>
+      <c r="I80" t="s">
         <v>663</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>664</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>665</v>
-      </c>
-      <c r="K80" t="s">
-        <v>666</v>
       </c>
       <c r="L80">
         <v>11000000</v>
@@ -17030,16 +17021,16 @@
         <v>7893</v>
       </c>
       <c r="B81" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C81" t="s">
         <v>143</v>
       </c>
       <c r="D81" t="s">
+        <v>666</v>
+      </c>
+      <c r="E81" t="s">
         <v>667</v>
-      </c>
-      <c r="E81" t="s">
-        <v>668</v>
       </c>
       <c r="F81">
         <v>10961</v>
@@ -17048,10 +17039,10 @@
         <v>139</v>
       </c>
       <c r="I81" t="s">
+        <v>668</v>
+      </c>
+      <c r="K81" t="s">
         <v>669</v>
-      </c>
-      <c r="K81" t="s">
-        <v>670</v>
       </c>
       <c r="L81">
         <v>11000000</v>
@@ -17153,7 +17144,7 @@
         <v>147</v>
       </c>
       <c r="DQ81" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="DS81" t="s">
         <v>143</v>
@@ -17173,10 +17164,10 @@
         <v>143</v>
       </c>
       <c r="D82" t="s">
+        <v>671</v>
+      </c>
+      <c r="E82" t="s">
         <v>672</v>
-      </c>
-      <c r="E82" t="s">
-        <v>673</v>
       </c>
       <c r="F82">
         <v>10245</v>
@@ -17185,10 +17176,10 @@
         <v>139</v>
       </c>
       <c r="I82" t="s">
+        <v>673</v>
+      </c>
+      <c r="K82" t="s">
         <v>674</v>
-      </c>
-      <c r="K82" t="s">
-        <v>675</v>
       </c>
       <c r="L82">
         <v>11000000</v>
@@ -17274,16 +17265,16 @@
         <v>7898</v>
       </c>
       <c r="B83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C83" t="s">
         <v>143</v>
       </c>
       <c r="D83" t="s">
+        <v>675</v>
+      </c>
+      <c r="E83" t="s">
         <v>676</v>
-      </c>
-      <c r="E83" t="s">
-        <v>677</v>
       </c>
       <c r="F83">
         <v>10969</v>
@@ -17292,10 +17283,10 @@
         <v>139</v>
       </c>
       <c r="I83" t="s">
+        <v>677</v>
+      </c>
+      <c r="K83" t="s">
         <v>678</v>
-      </c>
-      <c r="K83" t="s">
-        <v>679</v>
       </c>
       <c r="L83">
         <v>11000000</v>
@@ -17381,16 +17372,16 @@
         <v>7911</v>
       </c>
       <c r="B84" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C84" t="s">
         <v>143</v>
       </c>
       <c r="D84" t="s">
+        <v>679</v>
+      </c>
+      <c r="E84" t="s">
         <v>680</v>
-      </c>
-      <c r="E84" t="s">
-        <v>681</v>
       </c>
       <c r="F84">
         <v>10317</v>
@@ -17399,10 +17390,10 @@
         <v>139</v>
       </c>
       <c r="I84" t="s">
+        <v>681</v>
+      </c>
+      <c r="K84" t="s">
         <v>682</v>
-      </c>
-      <c r="K84" t="s">
-        <v>683</v>
       </c>
       <c r="L84">
         <v>11000000</v>
@@ -17518,10 +17509,10 @@
         <v>143</v>
       </c>
       <c r="D85" t="s">
+        <v>683</v>
+      </c>
+      <c r="E85" t="s">
         <v>684</v>
-      </c>
-      <c r="E85" t="s">
-        <v>685</v>
       </c>
       <c r="F85">
         <v>13053</v>
@@ -17530,13 +17521,13 @@
         <v>139</v>
       </c>
       <c r="I85" t="s">
+        <v>685</v>
+      </c>
+      <c r="J85" t="s">
         <v>686</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>687</v>
-      </c>
-      <c r="K85" t="s">
-        <v>688</v>
       </c>
       <c r="L85">
         <v>11000000</v>
@@ -17637,16 +17628,16 @@
         <v>7913</v>
       </c>
       <c r="B86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C86" t="s">
         <v>143</v>
       </c>
       <c r="D86" t="s">
+        <v>688</v>
+      </c>
+      <c r="E86" t="s">
         <v>689</v>
-      </c>
-      <c r="E86" t="s">
-        <v>690</v>
       </c>
       <c r="F86">
         <v>10369</v>
@@ -17655,10 +17646,10 @@
         <v>139</v>
       </c>
       <c r="I86" t="s">
+        <v>690</v>
+      </c>
+      <c r="K86" t="s">
         <v>691</v>
-      </c>
-      <c r="K86" t="s">
-        <v>692</v>
       </c>
       <c r="L86">
         <v>11000000</v>
@@ -17777,10 +17768,10 @@
         <v>143</v>
       </c>
       <c r="D87" t="s">
+        <v>692</v>
+      </c>
+      <c r="E87" t="s">
         <v>693</v>
-      </c>
-      <c r="E87" t="s">
-        <v>694</v>
       </c>
       <c r="F87">
         <v>10369</v>
@@ -17789,10 +17780,10 @@
         <v>139</v>
       </c>
       <c r="I87" t="s">
+        <v>694</v>
+      </c>
+      <c r="K87" t="s">
         <v>695</v>
-      </c>
-      <c r="K87" t="s">
-        <v>696</v>
       </c>
       <c r="L87">
         <v>11000000</v>
@@ -17893,31 +17884,31 @@
         <v>7935</v>
       </c>
       <c r="B88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C88" t="s">
         <v>143</v>
       </c>
       <c r="D88" t="s">
+        <v>696</v>
+      </c>
+      <c r="E88" t="s">
         <v>697</v>
-      </c>
-      <c r="E88" t="s">
-        <v>698</v>
       </c>
       <c r="F88">
         <v>12249</v>
       </c>
       <c r="G88" t="s">
+        <v>698</v>
+      </c>
+      <c r="I88" t="s">
         <v>699</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>700</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>701</v>
-      </c>
-      <c r="K88" t="s">
-        <v>702</v>
       </c>
       <c r="L88">
         <v>11000000</v>
@@ -18015,16 +18006,16 @@
         <v>8070</v>
       </c>
       <c r="B89" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C89" t="s">
         <v>143</v>
       </c>
       <c r="D89" t="s">
+        <v>702</v>
+      </c>
+      <c r="E89" t="s">
         <v>703</v>
-      </c>
-      <c r="E89" t="s">
-        <v>704</v>
       </c>
       <c r="F89">
         <v>12163</v>
@@ -18033,13 +18024,13 @@
         <v>139</v>
       </c>
       <c r="I89" t="s">
+        <v>704</v>
+      </c>
+      <c r="J89" t="s">
         <v>705</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>706</v>
-      </c>
-      <c r="K89" t="s">
-        <v>707</v>
       </c>
       <c r="L89">
         <v>11000000</v>
@@ -18155,10 +18146,10 @@
         <v>143</v>
       </c>
       <c r="D90" t="s">
+        <v>707</v>
+      </c>
+      <c r="E90" t="s">
         <v>708</v>
-      </c>
-      <c r="E90" t="s">
-        <v>709</v>
       </c>
       <c r="F90">
         <v>12169</v>
@@ -18167,10 +18158,10 @@
         <v>139</v>
       </c>
       <c r="I90" t="s">
+        <v>709</v>
+      </c>
+      <c r="K90" t="s">
         <v>710</v>
-      </c>
-      <c r="K90" t="s">
-        <v>711</v>
       </c>
       <c r="L90">
         <v>11000000</v>
@@ -18277,16 +18268,16 @@
         <v>8075</v>
       </c>
       <c r="B91" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C91" t="s">
         <v>143</v>
       </c>
       <c r="D91" t="s">
+        <v>711</v>
+      </c>
+      <c r="E91" t="s">
         <v>712</v>
-      </c>
-      <c r="E91" t="s">
-        <v>713</v>
       </c>
       <c r="F91">
         <v>14167</v>
@@ -18295,10 +18286,10 @@
         <v>139</v>
       </c>
       <c r="I91" t="s">
+        <v>713</v>
+      </c>
+      <c r="K91" t="s">
         <v>714</v>
-      </c>
-      <c r="K91" t="s">
-        <v>715</v>
       </c>
       <c r="L91">
         <v>11000000</v>
@@ -18399,10 +18390,10 @@
         <v>143</v>
       </c>
       <c r="D92" t="s">
+        <v>715</v>
+      </c>
+      <c r="E92" t="s">
         <v>716</v>
-      </c>
-      <c r="E92" t="s">
-        <v>717</v>
       </c>
       <c r="F92">
         <v>14163</v>
@@ -18411,10 +18402,10 @@
         <v>139</v>
       </c>
       <c r="I92" t="s">
+        <v>717</v>
+      </c>
+      <c r="J92" t="s">
         <v>718</v>
-      </c>
-      <c r="J92" t="s">
-        <v>719</v>
       </c>
       <c r="L92">
         <v>11000000</v>
@@ -18432,7 +18423,7 @@
         <v>174</v>
       </c>
       <c r="AB92" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AE92" t="s">
         <v>143</v>
@@ -18524,16 +18515,16 @@
         <v>8229</v>
       </c>
       <c r="B93" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C93" t="s">
         <v>143</v>
       </c>
       <c r="D93" t="s">
+        <v>720</v>
+      </c>
+      <c r="E93" t="s">
         <v>721</v>
-      </c>
-      <c r="E93" t="s">
-        <v>722</v>
       </c>
       <c r="F93">
         <v>14109</v>
@@ -18542,10 +18533,10 @@
         <v>139</v>
       </c>
       <c r="I93" t="s">
+        <v>722</v>
+      </c>
+      <c r="K93" t="s">
         <v>723</v>
-      </c>
-      <c r="K93" t="s">
-        <v>724</v>
       </c>
       <c r="L93">
         <v>11000000</v>
@@ -18649,10 +18640,10 @@
         <v>143</v>
       </c>
       <c r="D94" t="s">
+        <v>724</v>
+      </c>
+      <c r="E94" t="s">
         <v>725</v>
-      </c>
-      <c r="E94" t="s">
-        <v>726</v>
       </c>
       <c r="F94">
         <v>12247</v>
@@ -18661,7 +18652,7 @@
         <v>139</v>
       </c>
       <c r="K94" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L94">
         <v>11000000</v>
@@ -18768,16 +18759,16 @@
         <v>8312</v>
       </c>
       <c r="B95" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C95" t="s">
         <v>143</v>
       </c>
       <c r="D95" t="s">
+        <v>727</v>
+      </c>
+      <c r="E95" t="s">
         <v>728</v>
-      </c>
-      <c r="E95" t="s">
-        <v>729</v>
       </c>
       <c r="F95">
         <v>12163</v>
@@ -18786,7 +18777,7 @@
         <v>139</v>
       </c>
       <c r="K95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L95">
         <v>11000000</v>
@@ -18870,7 +18861,7 @@
         <v>143</v>
       </c>
       <c r="BH95" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CP95" t="s">
         <v>143</v>
@@ -18899,10 +18890,10 @@
         <v>143</v>
       </c>
       <c r="D96" t="s">
+        <v>731</v>
+      </c>
+      <c r="E96" t="s">
         <v>732</v>
-      </c>
-      <c r="E96" t="s">
-        <v>733</v>
       </c>
       <c r="F96">
         <v>12209</v>
@@ -18911,10 +18902,10 @@
         <v>139</v>
       </c>
       <c r="I96" t="s">
+        <v>733</v>
+      </c>
+      <c r="K96" t="s">
         <v>734</v>
-      </c>
-      <c r="K96" t="s">
-        <v>735</v>
       </c>
       <c r="L96">
         <v>11000000</v>
@@ -19027,10 +19018,10 @@
         <v>143</v>
       </c>
       <c r="D97" t="s">
+        <v>735</v>
+      </c>
+      <c r="E97" t="s">
         <v>736</v>
-      </c>
-      <c r="E97" t="s">
-        <v>737</v>
       </c>
       <c r="F97">
         <v>12209</v>
@@ -19039,10 +19030,10 @@
         <v>139</v>
       </c>
       <c r="I97" t="s">
+        <v>737</v>
+      </c>
+      <c r="K97" t="s">
         <v>738</v>
-      </c>
-      <c r="K97" t="s">
-        <v>739</v>
       </c>
       <c r="L97">
         <v>11000000</v>
@@ -19126,7 +19117,7 @@
         <v>143</v>
       </c>
       <c r="BH97" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CE97">
         <v>3</v>
@@ -19155,10 +19146,10 @@
         <v>143</v>
       </c>
       <c r="D98" t="s">
+        <v>739</v>
+      </c>
+      <c r="E98" t="s">
         <v>740</v>
-      </c>
-      <c r="E98" t="s">
-        <v>741</v>
       </c>
       <c r="F98">
         <v>14169</v>
@@ -19167,7 +19158,7 @@
         <v>139</v>
       </c>
       <c r="K98" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L98">
         <v>11000000</v>
@@ -19251,7 +19242,7 @@
         <v>143</v>
       </c>
       <c r="BH98" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CP98" t="s">
         <v>143</v>
@@ -19280,10 +19271,10 @@
         <v>143</v>
       </c>
       <c r="D99" t="s">
+        <v>742</v>
+      </c>
+      <c r="E99" t="s">
         <v>743</v>
-      </c>
-      <c r="E99" t="s">
-        <v>744</v>
       </c>
       <c r="F99">
         <v>12163</v>
@@ -19292,7 +19283,7 @@
         <v>139</v>
       </c>
       <c r="K99" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L99">
         <v>11000000</v>
@@ -19396,16 +19387,16 @@
         <v>8322</v>
       </c>
       <c r="B100" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C100" t="s">
         <v>143</v>
       </c>
       <c r="D100" t="s">
+        <v>745</v>
+      </c>
+      <c r="E100" t="s">
         <v>746</v>
-      </c>
-      <c r="E100" t="s">
-        <v>747</v>
       </c>
       <c r="F100">
         <v>12207</v>
@@ -19414,10 +19405,10 @@
         <v>139</v>
       </c>
       <c r="I100" t="s">
+        <v>747</v>
+      </c>
+      <c r="K100" t="s">
         <v>748</v>
-      </c>
-      <c r="K100" t="s">
-        <v>749</v>
       </c>
       <c r="L100">
         <v>11000000</v>
@@ -19530,10 +19521,10 @@
         <v>143</v>
       </c>
       <c r="D101" t="s">
+        <v>749</v>
+      </c>
+      <c r="E101" t="s">
         <v>750</v>
-      </c>
-      <c r="E101" t="s">
-        <v>751</v>
       </c>
       <c r="F101">
         <v>14195</v>
@@ -19542,10 +19533,10 @@
         <v>139</v>
       </c>
       <c r="I101" t="s">
+        <v>751</v>
+      </c>
+      <c r="K101" t="s">
         <v>752</v>
-      </c>
-      <c r="K101" t="s">
-        <v>753</v>
       </c>
       <c r="L101">
         <v>11000000</v>
@@ -19623,7 +19614,7 @@
         <v>143</v>
       </c>
       <c r="BH101" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CP101" t="s">
         <v>143</v>
@@ -19646,16 +19637,16 @@
         <v>8329</v>
       </c>
       <c r="B102" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C102" t="s">
         <v>143</v>
       </c>
       <c r="D102" t="s">
+        <v>753</v>
+      </c>
+      <c r="E102" t="s">
         <v>754</v>
-      </c>
-      <c r="E102" t="s">
-        <v>755</v>
       </c>
       <c r="F102">
         <v>10787</v>
@@ -19664,7 +19655,7 @@
         <v>139</v>
       </c>
       <c r="K102" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L102">
         <v>11000000</v>
@@ -19736,7 +19727,7 @@
         <v>143</v>
       </c>
       <c r="BH102" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CE102">
         <v>2</v>
@@ -19762,16 +19753,16 @@
         <v>8379</v>
       </c>
       <c r="B103" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C103" t="s">
         <v>143</v>
       </c>
       <c r="D103" t="s">
+        <v>756</v>
+      </c>
+      <c r="E103" t="s">
         <v>757</v>
-      </c>
-      <c r="E103" t="s">
-        <v>758</v>
       </c>
       <c r="F103">
         <v>10789</v>
@@ -19780,10 +19771,10 @@
         <v>139</v>
       </c>
       <c r="I103" t="s">
+        <v>758</v>
+      </c>
+      <c r="K103" t="s">
         <v>759</v>
-      </c>
-      <c r="K103" t="s">
-        <v>760</v>
       </c>
       <c r="L103">
         <v>11000000</v>
@@ -19887,10 +19878,10 @@
         <v>143</v>
       </c>
       <c r="D104" t="s">
+        <v>760</v>
+      </c>
+      <c r="E104" t="s">
         <v>761</v>
-      </c>
-      <c r="E104" t="s">
-        <v>762</v>
       </c>
       <c r="F104">
         <v>10823</v>
@@ -19899,10 +19890,10 @@
         <v>139</v>
       </c>
       <c r="I104" t="s">
+        <v>762</v>
+      </c>
+      <c r="K104" t="s">
         <v>763</v>
-      </c>
-      <c r="K104" t="s">
-        <v>764</v>
       </c>
       <c r="L104">
         <v>11000000</v>
@@ -20006,19 +19997,19 @@
         <v>8381</v>
       </c>
       <c r="B105" t="s">
+        <v>764</v>
+      </c>
+      <c r="D105" t="s">
         <v>765</v>
-      </c>
-      <c r="D105" t="s">
-        <v>766</v>
       </c>
       <c r="F105">
         <v>13507</v>
       </c>
       <c r="G105" t="s">
+        <v>766</v>
+      </c>
+      <c r="K105" t="s">
         <v>767</v>
-      </c>
-      <c r="K105" t="s">
-        <v>768</v>
       </c>
       <c r="L105">
         <v>11000000</v>
@@ -20125,16 +20116,16 @@
         <v>8496</v>
       </c>
       <c r="B106" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C106" t="s">
         <v>143</v>
       </c>
       <c r="D106" t="s">
+        <v>768</v>
+      </c>
+      <c r="E106" t="s">
         <v>769</v>
-      </c>
-      <c r="E106" t="s">
-        <v>770</v>
       </c>
       <c r="F106">
         <v>13347</v>
@@ -20143,10 +20134,10 @@
         <v>139</v>
       </c>
       <c r="I106" t="s">
+        <v>770</v>
+      </c>
+      <c r="K106" t="s">
         <v>771</v>
-      </c>
-      <c r="K106" t="s">
-        <v>772</v>
       </c>
       <c r="L106">
         <v>11000000</v>
@@ -20244,16 +20235,16 @@
         <v>8498</v>
       </c>
       <c r="B107" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C107" t="s">
         <v>143</v>
       </c>
       <c r="D107" t="s">
+        <v>772</v>
+      </c>
+      <c r="E107" t="s">
         <v>773</v>
-      </c>
-      <c r="E107" t="s">
-        <v>774</v>
       </c>
       <c r="F107">
         <v>10967</v>
@@ -20262,10 +20253,10 @@
         <v>139</v>
       </c>
       <c r="I107" t="s">
+        <v>774</v>
+      </c>
+      <c r="K107" t="s">
         <v>775</v>
-      </c>
-      <c r="K107" t="s">
-        <v>776</v>
       </c>
       <c r="L107">
         <v>11000000</v>
@@ -20355,7 +20346,7 @@
         <v>143</v>
       </c>
       <c r="BH107" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CP107" t="s">
         <v>143</v>
@@ -20384,10 +20375,10 @@
         <v>143</v>
       </c>
       <c r="D108" t="s">
+        <v>776</v>
+      </c>
+      <c r="E108" t="s">
         <v>777</v>
-      </c>
-      <c r="E108" t="s">
-        <v>778</v>
       </c>
       <c r="F108">
         <v>12359</v>
@@ -20396,10 +20387,10 @@
         <v>139</v>
       </c>
       <c r="I108" t="s">
+        <v>778</v>
+      </c>
+      <c r="K108" t="s">
         <v>779</v>
-      </c>
-      <c r="K108" t="s">
-        <v>780</v>
       </c>
       <c r="L108">
         <v>11000000</v>
@@ -20500,10 +20491,10 @@
         <v>143</v>
       </c>
       <c r="D109" t="s">
+        <v>780</v>
+      </c>
+      <c r="E109" t="s">
         <v>781</v>
-      </c>
-      <c r="E109" t="s">
-        <v>782</v>
       </c>
       <c r="F109">
         <v>13437</v>
@@ -20512,10 +20503,10 @@
         <v>139</v>
       </c>
       <c r="I109" t="s">
+        <v>782</v>
+      </c>
+      <c r="K109" t="s">
         <v>783</v>
-      </c>
-      <c r="K109" t="s">
-        <v>784</v>
       </c>
       <c r="L109">
         <v>11000000</v>
@@ -20631,10 +20622,10 @@
         <v>143</v>
       </c>
       <c r="D110" t="s">
+        <v>784</v>
+      </c>
+      <c r="E110" t="s">
         <v>785</v>
-      </c>
-      <c r="E110" t="s">
-        <v>786</v>
       </c>
       <c r="F110">
         <v>12627</v>
@@ -20643,10 +20634,10 @@
         <v>139</v>
       </c>
       <c r="I110" t="s">
+        <v>786</v>
+      </c>
+      <c r="K110" t="s">
         <v>787</v>
-      </c>
-      <c r="K110" t="s">
-        <v>788</v>
       </c>
       <c r="L110">
         <v>11000000</v>
@@ -20753,10 +20744,10 @@
         <v>143</v>
       </c>
       <c r="D111" t="s">
+        <v>788</v>
+      </c>
+      <c r="E111" t="s">
         <v>789</v>
-      </c>
-      <c r="E111" t="s">
-        <v>790</v>
       </c>
       <c r="F111">
         <v>12359</v>
@@ -20765,10 +20756,10 @@
         <v>139</v>
       </c>
       <c r="I111" t="s">
+        <v>790</v>
+      </c>
+      <c r="K111" t="s">
         <v>791</v>
-      </c>
-      <c r="K111" t="s">
-        <v>792</v>
       </c>
       <c r="L111">
         <v>11000000</v>
@@ -20864,7 +20855,7 @@
         <v>143</v>
       </c>
       <c r="EF111" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="112" spans="1:136">
@@ -20878,10 +20869,10 @@
         <v>143</v>
       </c>
       <c r="D112" t="s">
+        <v>793</v>
+      </c>
+      <c r="E112" t="s">
         <v>794</v>
-      </c>
-      <c r="E112" t="s">
-        <v>795</v>
       </c>
       <c r="F112">
         <v>14193</v>
@@ -20890,10 +20881,10 @@
         <v>139</v>
       </c>
       <c r="I112" t="s">
+        <v>795</v>
+      </c>
+      <c r="K112" t="s">
         <v>796</v>
-      </c>
-      <c r="K112" t="s">
-        <v>797</v>
       </c>
       <c r="L112">
         <v>11000000</v>
@@ -20985,10 +20976,10 @@
         <v>143</v>
       </c>
       <c r="D113" t="s">
+        <v>797</v>
+      </c>
+      <c r="E113" t="s">
         <v>798</v>
-      </c>
-      <c r="E113" t="s">
-        <v>799</v>
       </c>
       <c r="F113">
         <v>10713</v>
@@ -20997,10 +20988,10 @@
         <v>139</v>
       </c>
       <c r="I113" t="s">
+        <v>799</v>
+      </c>
+      <c r="K113" t="s">
         <v>800</v>
-      </c>
-      <c r="K113" t="s">
-        <v>801</v>
       </c>
       <c r="L113">
         <v>11000000</v>
@@ -21116,10 +21107,10 @@
         <v>143</v>
       </c>
       <c r="D114" t="s">
+        <v>801</v>
+      </c>
+      <c r="E114" t="s">
         <v>802</v>
-      </c>
-      <c r="E114" t="s">
-        <v>803</v>
       </c>
       <c r="F114">
         <v>10405</v>
@@ -21128,10 +21119,10 @@
         <v>139</v>
       </c>
       <c r="I114" t="s">
+        <v>803</v>
+      </c>
+      <c r="K114" t="s">
         <v>804</v>
-      </c>
-      <c r="K114" t="s">
-        <v>805</v>
       </c>
       <c r="L114">
         <v>11000000</v>
@@ -21205,16 +21196,16 @@
         <v>8637</v>
       </c>
       <c r="B115" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C115" t="s">
         <v>143</v>
       </c>
       <c r="D115" t="s">
+        <v>805</v>
+      </c>
+      <c r="E115" t="s">
         <v>806</v>
-      </c>
-      <c r="E115" t="s">
-        <v>807</v>
       </c>
       <c r="F115">
         <v>12305</v>
@@ -21223,10 +21214,10 @@
         <v>139</v>
       </c>
       <c r="I115" t="s">
+        <v>807</v>
+      </c>
+      <c r="K115" t="s">
         <v>808</v>
-      </c>
-      <c r="K115" t="s">
-        <v>809</v>
       </c>
       <c r="L115">
         <v>11000000</v>
@@ -21333,13 +21324,13 @@
         <v>9940</v>
       </c>
       <c r="B116" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D116" t="s">
+        <v>809</v>
+      </c>
+      <c r="E116" t="s">
         <v>810</v>
-      </c>
-      <c r="E116" t="s">
-        <v>811</v>
       </c>
       <c r="F116">
         <v>14193</v>
@@ -21452,13 +21443,13 @@
         <v>9941</v>
       </c>
       <c r="B117" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D117" t="s">
+        <v>811</v>
+      </c>
+      <c r="E117" t="s">
         <v>812</v>
-      </c>
-      <c r="E117" t="s">
-        <v>813</v>
       </c>
       <c r="F117">
         <v>13505</v>
@@ -21568,13 +21559,13 @@
         <v>9942</v>
       </c>
       <c r="B118" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D118" t="s">
+        <v>813</v>
+      </c>
+      <c r="E118" t="s">
         <v>814</v>
-      </c>
-      <c r="E118" t="s">
-        <v>815</v>
       </c>
       <c r="F118">
         <v>14129</v>
@@ -21690,13 +21681,13 @@
         <v>9943</v>
       </c>
       <c r="B119" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D119" t="s">
+        <v>815</v>
+      </c>
+      <c r="E119" t="s">
         <v>816</v>
-      </c>
-      <c r="E119" t="s">
-        <v>817</v>
       </c>
       <c r="F119">
         <v>14193</v>
@@ -21824,13 +21815,13 @@
         <v>9947</v>
       </c>
       <c r="B120" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D120" t="s">
+        <v>817</v>
+      </c>
+      <c r="E120" t="s">
         <v>818</v>
-      </c>
-      <c r="E120" t="s">
-        <v>819</v>
       </c>
       <c r="F120">
         <v>14109</v>
@@ -21839,7 +21830,7 @@
         <v>139</v>
       </c>
       <c r="K120" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L120">
         <v>11000000</v>
@@ -21880,13 +21871,13 @@
         <v>9948</v>
       </c>
       <c r="B121" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D121" t="s">
+        <v>820</v>
+      </c>
+      <c r="E121" t="s">
         <v>821</v>
-      </c>
-      <c r="E121" t="s">
-        <v>822</v>
       </c>
       <c r="F121">
         <v>12527</v>
@@ -21895,10 +21886,10 @@
         <v>139</v>
       </c>
       <c r="I121" t="s">
+        <v>822</v>
+      </c>
+      <c r="K121" t="s">
         <v>823</v>
-      </c>
-      <c r="K121" t="s">
-        <v>824</v>
       </c>
       <c r="L121">
         <v>11000000</v>
@@ -21942,13 +21933,13 @@
         <v>9949</v>
       </c>
       <c r="B122" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D122" t="s">
+        <v>824</v>
+      </c>
+      <c r="E122" t="s">
         <v>825</v>
-      </c>
-      <c r="E122" t="s">
-        <v>826</v>
       </c>
       <c r="F122">
         <v>14089</v>
@@ -21957,7 +21948,7 @@
         <v>139</v>
       </c>
       <c r="K122" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L122">
         <v>11000000</v>
@@ -22001,13 +21992,13 @@
         <v>9951</v>
       </c>
       <c r="B123" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D123" t="s">
+        <v>827</v>
+      </c>
+      <c r="E123" t="s">
         <v>828</v>
-      </c>
-      <c r="E123" t="s">
-        <v>829</v>
       </c>
       <c r="F123">
         <v>13587</v>
@@ -22016,7 +22007,7 @@
         <v>139</v>
       </c>
       <c r="K123" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L123">
         <v>11000000</v>
@@ -22060,10 +22051,10 @@
         <v>9952</v>
       </c>
       <c r="B124" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D124" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F124">
         <v>12589</v>
@@ -22072,7 +22063,7 @@
         <v>139</v>
       </c>
       <c r="K124" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L124">
         <v>11000000</v>
@@ -22119,13 +22110,13 @@
         <v>9953</v>
       </c>
       <c r="B125" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D125" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E125" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F125">
         <v>14089</v>
@@ -22134,10 +22125,10 @@
         <v>139</v>
       </c>
       <c r="I125" t="s">
+        <v>833</v>
+      </c>
+      <c r="K125" t="s">
         <v>834</v>
-      </c>
-      <c r="K125" t="s">
-        <v>835</v>
       </c>
       <c r="L125">
         <v>11000000</v>
@@ -22184,13 +22175,13 @@
         <v>9955</v>
       </c>
       <c r="B126" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D126" t="s">
+        <v>835</v>
+      </c>
+      <c r="E126" t="s">
         <v>836</v>
-      </c>
-      <c r="E126" t="s">
-        <v>837</v>
       </c>
       <c r="F126">
         <v>14089</v>
@@ -22199,7 +22190,7 @@
         <v>139</v>
       </c>
       <c r="K126" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L126">
         <v>11000000</v>
@@ -22246,13 +22237,13 @@
         <v>9956</v>
       </c>
       <c r="B127" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D127" t="s">
+        <v>837</v>
+      </c>
+      <c r="E127" t="s">
         <v>838</v>
-      </c>
-      <c r="E127" t="s">
-        <v>839</v>
       </c>
       <c r="F127">
         <v>12559</v>
@@ -22261,7 +22252,7 @@
         <v>139</v>
       </c>
       <c r="K127" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L127">
         <v>11000000</v>
@@ -22305,13 +22296,13 @@
         <v>9957</v>
       </c>
       <c r="B128" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D128" t="s">
+        <v>840</v>
+      </c>
+      <c r="E128" t="s">
         <v>841</v>
-      </c>
-      <c r="E128" t="s">
-        <v>842</v>
       </c>
       <c r="F128">
         <v>14193</v>
@@ -22320,7 +22311,7 @@
         <v>139</v>
       </c>
       <c r="K128" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L128">
         <v>11000000</v>
@@ -22367,13 +22358,13 @@
         <v>9958</v>
       </c>
       <c r="B129" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D129" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E129" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F129">
         <v>14193</v>
@@ -22426,13 +22417,13 @@
         <v>9959</v>
       </c>
       <c r="B130" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D130" t="s">
+        <v>844</v>
+      </c>
+      <c r="E130" t="s">
         <v>845</v>
-      </c>
-      <c r="E130" t="s">
-        <v>846</v>
       </c>
       <c r="F130">
         <v>14089</v>
@@ -22441,7 +22432,7 @@
         <v>139</v>
       </c>
       <c r="K130" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L130">
         <v>11000000</v>
@@ -22488,13 +22479,13 @@
         <v>9961</v>
       </c>
       <c r="B131" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D131" t="s">
+        <v>847</v>
+      </c>
+      <c r="E131" t="s">
         <v>848</v>
-      </c>
-      <c r="E131" t="s">
-        <v>849</v>
       </c>
       <c r="F131">
         <v>12559</v>
@@ -22503,7 +22494,7 @@
         <v>139</v>
       </c>
       <c r="K131" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L131">
         <v>11000000</v>
@@ -22550,10 +22541,10 @@
         <v>9962</v>
       </c>
       <c r="B132" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D132" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F132">
         <v>14163</v>
@@ -22562,7 +22553,7 @@
         <v>139</v>
       </c>
       <c r="K132" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L132">
         <v>11000000</v>
@@ -22606,13 +22597,13 @@
         <v>9963</v>
       </c>
       <c r="B133" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D133" t="s">
+        <v>852</v>
+      </c>
+      <c r="E133" t="s">
         <v>853</v>
-      </c>
-      <c r="E133" t="s">
-        <v>854</v>
       </c>
       <c r="F133">
         <v>14193</v>
@@ -22621,7 +22612,7 @@
         <v>139</v>
       </c>
       <c r="K133" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L133">
         <v>11000000</v>
@@ -22668,16 +22659,16 @@
         <v>10223</v>
       </c>
       <c r="B134" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C134" t="s">
         <v>143</v>
       </c>
       <c r="D134" t="s">
+        <v>855</v>
+      </c>
+      <c r="E134" t="s">
         <v>856</v>
-      </c>
-      <c r="E134" t="s">
-        <v>857</v>
       </c>
       <c r="F134">
         <v>12109</v>
@@ -22686,7 +22677,7 @@
         <v>139</v>
       </c>
       <c r="I134" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L134">
         <v>11000000</v>
@@ -22746,7 +22737,7 @@
         <v>143</v>
       </c>
       <c r="DH134" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="DS134" t="s">
         <v>143</v>
@@ -22766,10 +22757,10 @@
         <v>143</v>
       </c>
       <c r="D135" t="s">
+        <v>859</v>
+      </c>
+      <c r="E135" t="s">
         <v>860</v>
-      </c>
-      <c r="E135" t="s">
-        <v>861</v>
       </c>
       <c r="F135">
         <v>14109</v>
@@ -22778,7 +22769,7 @@
         <v>139</v>
       </c>
       <c r="K135" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L135">
         <v>11000000</v>
@@ -22850,7 +22841,7 @@
         <v>143</v>
       </c>
       <c r="DH135" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="DS135" t="s">
         <v>143</v>
@@ -22864,16 +22855,16 @@
         <v>10231</v>
       </c>
       <c r="B136" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
       </c>
       <c r="D136" t="s">
+        <v>862</v>
+      </c>
+      <c r="E136" t="s">
         <v>863</v>
-      </c>
-      <c r="E136" t="s">
-        <v>864</v>
       </c>
       <c r="F136">
         <v>14129</v>
@@ -22882,7 +22873,7 @@
         <v>139</v>
       </c>
       <c r="K136" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L136">
         <v>11000000</v>
@@ -22966,7 +22957,7 @@
         <v>143</v>
       </c>
       <c r="DH136" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="DS136" t="s">
         <v>143</v>
@@ -22986,10 +22977,10 @@
         <v>143</v>
       </c>
       <c r="D137" t="s">
+        <v>865</v>
+      </c>
+      <c r="E137" t="s">
         <v>866</v>
-      </c>
-      <c r="E137" t="s">
-        <v>867</v>
       </c>
       <c r="F137">
         <v>12165</v>
@@ -23082,7 +23073,7 @@
         <v>147</v>
       </c>
       <c r="DH137" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="DS137" t="s">
         <v>143</v>
@@ -23096,13 +23087,13 @@
         <v>10238</v>
       </c>
       <c r="B138" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D138" t="s">
+        <v>867</v>
+      </c>
+      <c r="E138" t="s">
         <v>868</v>
-      </c>
-      <c r="E138" t="s">
-        <v>869</v>
       </c>
       <c r="F138">
         <v>13505</v>
@@ -23158,16 +23149,16 @@
         <v>10504</v>
       </c>
       <c r="B139" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C139" t="s">
         <v>147</v>
       </c>
       <c r="D139" t="s">
+        <v>869</v>
+      </c>
+      <c r="E139" t="s">
         <v>870</v>
-      </c>
-      <c r="E139" t="s">
-        <v>871</v>
       </c>
       <c r="F139">
         <v>13507</v>
@@ -23176,7 +23167,7 @@
         <v>139</v>
       </c>
       <c r="K139" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L139">
         <v>11000000</v>
@@ -23211,16 +23202,16 @@
         <v>10505</v>
       </c>
       <c r="B140" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
       </c>
       <c r="D140" t="s">
+        <v>872</v>
+      </c>
+      <c r="E140" t="s">
         <v>873</v>
-      </c>
-      <c r="E140" t="s">
-        <v>874</v>
       </c>
       <c r="F140">
         <v>13599</v>
@@ -23229,7 +23220,7 @@
         <v>139</v>
       </c>
       <c r="K140" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L140">
         <v>11000000</v>
@@ -23273,16 +23264,16 @@
         <v>10506</v>
       </c>
       <c r="B141" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C141" t="s">
         <v>147</v>
       </c>
       <c r="D141" t="s">
+        <v>875</v>
+      </c>
+      <c r="E141" t="s">
         <v>876</v>
-      </c>
-      <c r="E141" t="s">
-        <v>877</v>
       </c>
       <c r="F141">
         <v>13505</v>
@@ -23291,7 +23282,7 @@
         <v>139</v>
       </c>
       <c r="K141" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L141">
         <v>11000000</v>
@@ -23326,16 +23317,16 @@
         <v>10507</v>
       </c>
       <c r="B142" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C142" t="s">
         <v>147</v>
       </c>
       <c r="D142" t="s">
+        <v>878</v>
+      </c>
+      <c r="E142" t="s">
         <v>879</v>
-      </c>
-      <c r="E142" t="s">
-        <v>880</v>
       </c>
       <c r="F142">
         <v>12527</v>
@@ -23344,7 +23335,7 @@
         <v>139</v>
       </c>
       <c r="K142" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L142">
         <v>11000000</v>
@@ -23368,7 +23359,7 @@
         <v>147</v>
       </c>
       <c r="CU142" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="EC142" t="s">
         <v>143</v>
@@ -23379,16 +23370,16 @@
         <v>10508</v>
       </c>
       <c r="B143" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C143" t="s">
         <v>147</v>
       </c>
       <c r="D143" t="s">
+        <v>882</v>
+      </c>
+      <c r="E143" t="s">
         <v>883</v>
-      </c>
-      <c r="E143" t="s">
-        <v>884</v>
       </c>
       <c r="F143">
         <v>12527</v>
@@ -23397,7 +23388,7 @@
         <v>139</v>
       </c>
       <c r="K143" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L143">
         <v>11000000</v>
@@ -23438,10 +23429,10 @@
         <v>147</v>
       </c>
       <c r="D144" t="s">
+        <v>885</v>
+      </c>
+      <c r="E144" t="s">
         <v>886</v>
-      </c>
-      <c r="E144" t="s">
-        <v>887</v>
       </c>
       <c r="F144">
         <v>13505</v>
@@ -23450,7 +23441,7 @@
         <v>139</v>
       </c>
       <c r="K144" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L144">
         <v>11000000</v>
@@ -23495,7 +23486,7 @@
         <v>147</v>
       </c>
       <c r="DR144" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="EC144" t="s">
         <v>143</v>
@@ -23512,7 +23503,7 @@
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E145" t="s">
         <v>376</v>
@@ -23524,10 +23515,10 @@
         <v>139</v>
       </c>
       <c r="I145" t="s">
+        <v>890</v>
+      </c>
+      <c r="J145" t="s">
         <v>891</v>
-      </c>
-      <c r="J145" t="s">
-        <v>892</v>
       </c>
       <c r="K145" t="s">
         <v>379</v>
@@ -23628,79 +23619,79 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D1" t="s">
         <v>894</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>895</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>896</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>897</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>898</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>899</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>900</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>901</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>902</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>903</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>904</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>905</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>906</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>907</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>908</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>909</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>910</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>911</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>912</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>913</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>914</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>915</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -23711,13 +23702,13 @@
         <v>472</v>
       </c>
       <c r="C2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
         <v>917</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" t="s">
-        <v>918</v>
       </c>
       <c r="I2" t="s">
         <v>143</v>
@@ -23734,7 +23725,7 @@
         <v>473</v>
       </c>
       <c r="C3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -23743,7 +23734,7 @@
         <v>143</v>
       </c>
       <c r="O3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -23754,7 +23745,7 @@
         <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -23774,7 +23765,7 @@
         <v>473</v>
       </c>
       <c r="C5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N5" t="s">
         <v>143</v>
@@ -23788,7 +23779,7 @@
         <v>474</v>
       </c>
       <c r="C6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D6" t="s">
         <v>143</v>
@@ -23817,7 +23808,7 @@
         <v>474</v>
       </c>
       <c r="C7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J7" t="s">
         <v>143</v>
@@ -23834,7 +23825,7 @@
         <v>474</v>
       </c>
       <c r="C8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -23860,7 +23851,7 @@
         <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D9" t="s">
         <v>143</v>
@@ -23889,7 +23880,7 @@
         <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D10" t="s">
         <v>143</v>
@@ -23912,7 +23903,7 @@
         <v>475</v>
       </c>
       <c r="C11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -23932,7 +23923,7 @@
         <v>476</v>
       </c>
       <c r="C12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>
@@ -23949,7 +23940,7 @@
         <v>476</v>
       </c>
       <c r="C13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D13" t="s">
         <v>143</v>
@@ -23978,10 +23969,10 @@
         <v>477</v>
       </c>
       <c r="C14" t="s">
+        <v>916</v>
+      </c>
+      <c r="E14" t="s">
         <v>917</v>
-      </c>
-      <c r="E14" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -23992,7 +23983,7 @@
         <v>478</v>
       </c>
       <c r="C15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D15" t="s">
         <v>143</v>
@@ -24024,7 +24015,7 @@
         <v>478</v>
       </c>
       <c r="C16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -24035,13 +24026,13 @@
         <v>479</v>
       </c>
       <c r="C17" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D17" t="s">
         <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G17">
         <v>25</v>
@@ -24058,13 +24049,13 @@
         <v>479</v>
       </c>
       <c r="C18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D18" t="s">
         <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -24087,10 +24078,10 @@
         <v>479</v>
       </c>
       <c r="C19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N19" t="s">
         <v>143</v>
@@ -24104,7 +24095,7 @@
         <v>480</v>
       </c>
       <c r="C20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D20" t="s">
         <v>143</v>
@@ -24116,7 +24107,7 @@
         <v>143</v>
       </c>
       <c r="O20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -24127,10 +24118,10 @@
         <v>480</v>
       </c>
       <c r="C21" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O21" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -24141,7 +24132,7 @@
         <v>481</v>
       </c>
       <c r="C22" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D22" t="s">
         <v>143</v>
@@ -24165,7 +24156,7 @@
         <v>143</v>
       </c>
       <c r="O22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -24176,7 +24167,7 @@
         <v>482</v>
       </c>
       <c r="C23" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G23">
         <v>25</v>
@@ -24211,7 +24202,7 @@
         <v>482</v>
       </c>
       <c r="C24" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I24" t="s">
         <v>143</v>
@@ -24231,7 +24222,7 @@
         <v>674</v>
       </c>
       <c r="C25" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D25" t="s">
         <v>147</v>
@@ -24251,7 +24242,7 @@
         <v>674</v>
       </c>
       <c r="C26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D26" t="s">
         <v>143</v>
@@ -24277,13 +24268,13 @@
         <v>675</v>
       </c>
       <c r="C27" t="s">
+        <v>916</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
         <v>917</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>918</v>
       </c>
       <c r="I27" t="s">
         <v>143</v>
@@ -24297,7 +24288,7 @@
         <v>676</v>
       </c>
       <c r="C28" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D28" t="s">
         <v>143</v>
@@ -24335,7 +24326,7 @@
         <v>676</v>
       </c>
       <c r="C29" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D29" t="s">
         <v>143</v>
@@ -24361,7 +24352,7 @@
         <v>676</v>
       </c>
       <c r="C30" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D30" t="s">
         <v>147</v>
@@ -24381,13 +24372,13 @@
         <v>677</v>
       </c>
       <c r="C31" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D31" t="s">
         <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G31">
         <v>12</v>
@@ -24405,7 +24396,7 @@
         <v>143</v>
       </c>
       <c r="O31" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="P31" t="s">
         <v>143</v>
@@ -24440,13 +24431,13 @@
         <v>677</v>
       </c>
       <c r="C32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F32">
         <v>300</v>
@@ -24499,7 +24490,7 @@
         <v>882</v>
       </c>
       <c r="C33" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G33">
         <v>19</v>
@@ -24520,7 +24511,7 @@
         <v>143</v>
       </c>
       <c r="O33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -24531,7 +24522,7 @@
         <v>882</v>
       </c>
       <c r="C34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D34" t="s">
         <v>143</v>
@@ -24566,7 +24557,7 @@
         <v>882</v>
       </c>
       <c r="C35" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J35" t="s">
         <v>143</v>
@@ -24583,7 +24574,7 @@
         <v>883</v>
       </c>
       <c r="C36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D36" t="s">
         <v>143</v>
@@ -24621,7 +24612,7 @@
         <v>884</v>
       </c>
       <c r="C37" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D37" t="s">
         <v>143</v>
@@ -24656,7 +24647,7 @@
         <v>884</v>
       </c>
       <c r="C38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D38" t="s">
         <v>143</v>
@@ -24691,7 +24682,7 @@
         <v>884</v>
       </c>
       <c r="C39" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D39" t="s">
         <v>143</v>
@@ -24726,7 +24717,7 @@
         <v>884</v>
       </c>
       <c r="C40" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D40" t="s">
         <v>143</v>
@@ -24750,7 +24741,7 @@
         <v>147</v>
       </c>
       <c r="O40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Y40">
         <v>8</v>
@@ -24764,7 +24755,7 @@
         <v>884</v>
       </c>
       <c r="C41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D41" t="s">
         <v>143</v>
@@ -24784,7 +24775,7 @@
         <v>884</v>
       </c>
       <c r="C42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D42" t="s">
         <v>143</v>
@@ -24804,7 +24795,7 @@
         <v>884</v>
       </c>
       <c r="C43" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -24815,7 +24806,7 @@
         <v>885</v>
       </c>
       <c r="C44" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D44" t="s">
         <v>143</v>
@@ -24841,7 +24832,7 @@
         <v>885</v>
       </c>
       <c r="C45" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D45" t="s">
         <v>143</v>
@@ -24867,7 +24858,7 @@
         <v>961</v>
       </c>
       <c r="C46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D46" t="s">
         <v>143</v>
@@ -24893,7 +24884,7 @@
         <v>961</v>
       </c>
       <c r="C47" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D47" t="s">
         <v>147</v>
@@ -24910,7 +24901,7 @@
         <v>961</v>
       </c>
       <c r="C48" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D48" t="s">
         <v>147</v>
@@ -24927,7 +24918,7 @@
         <v>961</v>
       </c>
       <c r="C49" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D49" t="s">
         <v>143</v>
@@ -24944,13 +24935,13 @@
         <v>962</v>
       </c>
       <c r="C50" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D50" t="s">
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G50">
         <v>50</v>
@@ -24971,7 +24962,7 @@
         <v>143</v>
       </c>
       <c r="O50" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P50" t="s">
         <v>147</v>
@@ -24994,7 +24985,7 @@
         <v>962</v>
       </c>
       <c r="C51" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D51" t="s">
         <v>147</v>
@@ -25017,7 +25008,7 @@
         <v>962</v>
       </c>
       <c r="C52" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D52" t="s">
         <v>147</v>
@@ -25034,7 +25025,7 @@
         <v>979</v>
       </c>
       <c r="C53" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D53" t="s">
         <v>147</v>
@@ -25054,7 +25045,7 @@
         <v>979</v>
       </c>
       <c r="C54" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D54" t="s">
         <v>147</v>
@@ -25074,7 +25065,7 @@
         <v>979</v>
       </c>
       <c r="C55" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D55" t="s">
         <v>147</v>
@@ -25094,13 +25085,13 @@
         <v>980</v>
       </c>
       <c r="C56" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D56" t="s">
         <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G56">
         <v>25</v>
@@ -25121,7 +25112,7 @@
         <v>143</v>
       </c>
       <c r="O56" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -25132,13 +25123,13 @@
         <v>980</v>
       </c>
       <c r="C57" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D57" t="s">
         <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G57">
         <v>25</v>
@@ -25173,13 +25164,13 @@
         <v>1023</v>
       </c>
       <c r="C58" t="s">
+        <v>916</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
         <v>917</v>
-      </c>
-      <c r="D58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" t="s">
-        <v>918</v>
       </c>
       <c r="I58" t="s">
         <v>143</v>
@@ -25196,10 +25187,10 @@
         <v>1024</v>
       </c>
       <c r="C59" t="s">
+        <v>916</v>
+      </c>
+      <c r="E59" t="s">
         <v>917</v>
-      </c>
-      <c r="E59" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -25210,7 +25201,7 @@
         <v>1025</v>
       </c>
       <c r="C60" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D60" t="s">
         <v>143</v>
@@ -25245,7 +25236,7 @@
         <v>1026</v>
       </c>
       <c r="C61" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D61" t="s">
         <v>143</v>
@@ -25283,7 +25274,7 @@
         <v>1026</v>
       </c>
       <c r="C62" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D62" t="s">
         <v>143</v>
@@ -25306,7 +25297,7 @@
         <v>1027</v>
       </c>
       <c r="C63" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D63" t="s">
         <v>143</v>
@@ -25332,7 +25323,7 @@
         <v>1027</v>
       </c>
       <c r="C64" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D64" t="s">
         <v>143</v>
@@ -25359,7 +25350,7 @@
         <v>143</v>
       </c>
       <c r="O64" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -25370,7 +25361,7 @@
         <v>1027</v>
       </c>
       <c r="C65" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D65" t="s">
         <v>147</v>
@@ -25387,7 +25378,7 @@
         <v>1028</v>
       </c>
       <c r="C66" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D66" t="s">
         <v>143</v>
@@ -25413,7 +25404,7 @@
         <v>1028</v>
       </c>
       <c r="C67" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D67" t="s">
         <v>147</v>
@@ -25430,7 +25421,7 @@
         <v>1028</v>
       </c>
       <c r="C68" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D68" t="s">
         <v>147</v>
@@ -25453,7 +25444,7 @@
         <v>1029</v>
       </c>
       <c r="C69" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D69" t="s">
         <v>143</v>
@@ -25479,7 +25470,7 @@
         <v>1029</v>
       </c>
       <c r="C70" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D70" t="s">
         <v>143</v>
@@ -25514,7 +25505,7 @@
         <v>1029</v>
       </c>
       <c r="C71" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D71" t="s">
         <v>143</v>
@@ -25537,7 +25528,7 @@
         <v>1029</v>
       </c>
       <c r="C72" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D72" t="s">
         <v>143</v>
@@ -25560,7 +25551,7 @@
         <v>1029</v>
       </c>
       <c r="C73" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D73" t="s">
         <v>143</v>
@@ -25592,7 +25583,7 @@
         <v>1029</v>
       </c>
       <c r="C74" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D74" t="s">
         <v>147</v>
@@ -25615,7 +25606,7 @@
         <v>1029</v>
       </c>
       <c r="C75" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D75" t="s">
         <v>147</v>
@@ -25638,7 +25629,7 @@
         <v>1037</v>
       </c>
       <c r="C76" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D76" t="s">
         <v>147</v>
@@ -25664,7 +25655,7 @@
         <v>1038</v>
       </c>
       <c r="C77" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D77" t="s">
         <v>143</v>
@@ -25696,7 +25687,7 @@
         <v>1038</v>
       </c>
       <c r="C78" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D78" t="s">
         <v>143</v>
@@ -25722,7 +25713,7 @@
         <v>1040</v>
       </c>
       <c r="C79" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D79" t="s">
         <v>147</v>
@@ -25739,10 +25730,10 @@
         <v>1041</v>
       </c>
       <c r="C80" t="s">
+        <v>916</v>
+      </c>
+      <c r="E80" t="s">
         <v>917</v>
-      </c>
-      <c r="E80" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -25753,10 +25744,10 @@
         <v>1042</v>
       </c>
       <c r="C81" t="s">
+        <v>916</v>
+      </c>
+      <c r="E81" t="s">
         <v>917</v>
-      </c>
-      <c r="E81" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -25767,7 +25758,7 @@
         <v>1043</v>
       </c>
       <c r="C82" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D82" t="s">
         <v>143</v>
@@ -25796,7 +25787,7 @@
         <v>1043</v>
       </c>
       <c r="C83" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D83" t="s">
         <v>147</v>
@@ -25813,13 +25804,13 @@
         <v>1044</v>
       </c>
       <c r="C84" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D84" t="s">
         <v>143</v>
       </c>
       <c r="E84" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G84">
         <v>12.5</v>
@@ -25842,13 +25833,13 @@
         <v>1044</v>
       </c>
       <c r="C85" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D85" t="s">
         <v>143</v>
       </c>
       <c r="E85" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G85">
         <v>25</v>
@@ -25877,10 +25868,10 @@
         <v>1045</v>
       </c>
       <c r="C86" t="s">
+        <v>916</v>
+      </c>
+      <c r="E86" t="s">
         <v>917</v>
-      </c>
-      <c r="E86" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -25891,7 +25882,7 @@
         <v>1046</v>
       </c>
       <c r="C87" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D87" t="s">
         <v>147</v>
@@ -25905,7 +25896,7 @@
         <v>1046</v>
       </c>
       <c r="C88" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D88" t="s">
         <v>147</v>
@@ -25928,7 +25919,7 @@
         <v>1047</v>
       </c>
       <c r="C89" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D89" t="s">
         <v>147</v>
@@ -25951,7 +25942,7 @@
         <v>1047</v>
       </c>
       <c r="C90" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D90" t="s">
         <v>147</v>
@@ -25974,7 +25965,7 @@
         <v>1047</v>
       </c>
       <c r="C91" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D91" t="s">
         <v>143</v>
@@ -26009,7 +26000,7 @@
         <v>1047</v>
       </c>
       <c r="C92" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D92" t="s">
         <v>143</v>
@@ -26032,7 +26023,7 @@
         <v>1048</v>
       </c>
       <c r="C93" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D93" t="s">
         <v>147</v>
@@ -26041,7 +26032,7 @@
         <v>143</v>
       </c>
       <c r="O93" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -26052,7 +26043,7 @@
         <v>1048</v>
       </c>
       <c r="C94" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D94" t="s">
         <v>147</v>
@@ -26075,7 +26066,7 @@
         <v>1049</v>
       </c>
       <c r="C95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D95" t="s">
         <v>143</v>
@@ -26110,7 +26101,7 @@
         <v>1049</v>
       </c>
       <c r="C96" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D96" t="s">
         <v>143</v>
@@ -26136,7 +26127,7 @@
         <v>1050</v>
       </c>
       <c r="C97" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D97" t="s">
         <v>143</v>
@@ -26171,7 +26162,7 @@
         <v>1050</v>
       </c>
       <c r="C98" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D98" t="s">
         <v>143</v>
@@ -26192,7 +26183,7 @@
         <v>143</v>
       </c>
       <c r="O98" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="R98" t="s">
         <v>147</v>
@@ -26209,7 +26200,7 @@
         <v>1050</v>
       </c>
       <c r="C99" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D99" t="s">
         <v>147</v>
@@ -26235,7 +26226,7 @@
         <v>1050</v>
       </c>
       <c r="C100" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D100" t="s">
         <v>147</v>
@@ -26252,7 +26243,7 @@
         <v>1050</v>
       </c>
       <c r="C101" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D101" t="s">
         <v>147</v>
@@ -26267,7 +26258,7 @@
         <v>143</v>
       </c>
       <c r="O101" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -26278,7 +26269,7 @@
         <v>1051</v>
       </c>
       <c r="C102" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D102" t="s">
         <v>147</v>
@@ -26298,7 +26289,7 @@
         <v>1051</v>
       </c>
       <c r="C103" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D103" t="s">
         <v>147</v>
@@ -26333,7 +26324,7 @@
         <v>1051</v>
       </c>
       <c r="C104" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D104" t="s">
         <v>143</v>
@@ -26368,7 +26359,7 @@
         <v>1052</v>
       </c>
       <c r="C105" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D105" t="s">
         <v>143</v>
@@ -26391,7 +26382,7 @@
         <v>1053</v>
       </c>
       <c r="C106" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D106" t="s">
         <v>143</v>
@@ -26417,7 +26408,7 @@
         <v>1053</v>
       </c>
       <c r="C107" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D107" t="s">
         <v>147</v>
@@ -26443,7 +26434,7 @@
         <v>1053</v>
       </c>
       <c r="C108" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D108" t="s">
         <v>143</v>
@@ -26475,7 +26466,7 @@
         <v>1053</v>
       </c>
       <c r="C109" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D109" t="s">
         <v>147</v>
@@ -26492,7 +26483,7 @@
         <v>1054</v>
       </c>
       <c r="C110" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D110" t="s">
         <v>143</v>
@@ -26515,7 +26506,7 @@
         <v>1054</v>
       </c>
       <c r="C111" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D111" t="s">
         <v>143</v>
@@ -26562,7 +26553,7 @@
         <v>1055</v>
       </c>
       <c r="C112" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D112" t="s">
         <v>143</v>
@@ -26588,7 +26579,7 @@
         <v>1055</v>
       </c>
       <c r="C113" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D113" t="s">
         <v>143</v>
@@ -26614,7 +26605,7 @@
         <v>1055</v>
       </c>
       <c r="C114" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D114" t="s">
         <v>143</v>
@@ -26637,7 +26628,7 @@
         <v>1055</v>
       </c>
       <c r="C115" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D115" t="s">
         <v>143</v>
@@ -26663,7 +26654,7 @@
         <v>1055</v>
       </c>
       <c r="C116" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D116" t="s">
         <v>143</v>
@@ -26695,7 +26686,7 @@
         <v>1055</v>
       </c>
       <c r="C117" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D117" t="s">
         <v>143</v>
@@ -26715,7 +26706,7 @@
         <v>1055</v>
       </c>
       <c r="C118" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D118" t="s">
         <v>147</v>
@@ -26729,7 +26720,7 @@
         <v>1055</v>
       </c>
       <c r="C119" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D119" t="s">
         <v>143</v>
@@ -26782,13 +26773,13 @@
         <v>1056</v>
       </c>
       <c r="C120" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D120" t="s">
         <v>143</v>
       </c>
       <c r="E120" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G120">
         <v>12</v>
@@ -26811,13 +26802,13 @@
         <v>1056</v>
       </c>
       <c r="C121" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D121" t="s">
         <v>143</v>
       </c>
       <c r="E121" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G121">
         <v>25</v>
@@ -26849,7 +26840,7 @@
         <v>1057</v>
       </c>
       <c r="C122" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D122" t="s">
         <v>143</v>
@@ -26872,7 +26863,7 @@
         <v>1057</v>
       </c>
       <c r="C123" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D123" t="s">
         <v>143</v>
@@ -26907,7 +26898,7 @@
         <v>1057</v>
       </c>
       <c r="C124" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D124" t="s">
         <v>143</v>
@@ -26939,13 +26930,13 @@
         <v>1058</v>
       </c>
       <c r="C125" t="s">
+        <v>916</v>
+      </c>
+      <c r="D125" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" t="s">
         <v>917</v>
-      </c>
-      <c r="D125" t="s">
-        <v>147</v>
-      </c>
-      <c r="E125" t="s">
-        <v>918</v>
       </c>
       <c r="I125" t="s">
         <v>143</v>
@@ -26965,7 +26956,7 @@
         <v>1063</v>
       </c>
       <c r="C126" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D126" t="s">
         <v>143</v>
@@ -26991,7 +26982,7 @@
         <v>1063</v>
       </c>
       <c r="C127" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D127" t="s">
         <v>143</v>
@@ -27029,7 +27020,7 @@
         <v>1063</v>
       </c>
       <c r="C128" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D128" t="s">
         <v>147</v>
@@ -27046,7 +27037,7 @@
         <v>1064</v>
       </c>
       <c r="C129" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D129" t="s">
         <v>147</v>
@@ -27081,7 +27072,7 @@
         <v>1064</v>
       </c>
       <c r="C130" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D130" t="s">
         <v>143</v>
@@ -27107,7 +27098,7 @@
         <v>1064</v>
       </c>
       <c r="C131" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D131" t="s">
         <v>147</v>
@@ -27130,10 +27121,10 @@
         <v>1088</v>
       </c>
       <c r="C132" t="s">
+        <v>916</v>
+      </c>
+      <c r="E132" t="s">
         <v>917</v>
-      </c>
-      <c r="E132" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -27144,7 +27135,7 @@
         <v>1089</v>
       </c>
       <c r="C133" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D133" t="s">
         <v>147</v>
@@ -27161,7 +27152,7 @@
         <v>1089</v>
       </c>
       <c r="C134" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D134" t="s">
         <v>143</v>
@@ -27190,7 +27181,7 @@
         <v>1089</v>
       </c>
       <c r="C135" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D135" t="s">
         <v>143</v>
@@ -27213,7 +27204,7 @@
         <v>1089</v>
       </c>
       <c r="C136" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D136" t="s">
         <v>143</v>
@@ -27233,7 +27224,7 @@
         <v>1089</v>
       </c>
       <c r="C137" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D137" t="s">
         <v>147</v>
@@ -27247,7 +27238,7 @@
         <v>1090</v>
       </c>
       <c r="C138" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D138" t="s">
         <v>147</v>
@@ -27264,7 +27255,7 @@
         <v>1090</v>
       </c>
       <c r="C139" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D139" t="s">
         <v>143</v>
@@ -27299,7 +27290,7 @@
         <v>1090</v>
       </c>
       <c r="C140" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D140" t="s">
         <v>147</v>
@@ -27313,7 +27304,7 @@
         <v>1092</v>
       </c>
       <c r="C141" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D141" t="s">
         <v>143</v>
@@ -27333,7 +27324,7 @@
         <v>1092</v>
       </c>
       <c r="C142" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D142" t="s">
         <v>143</v>
@@ -27345,7 +27336,7 @@
         <v>143</v>
       </c>
       <c r="O142" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Y142">
         <v>6</v>
@@ -27359,7 +27350,7 @@
         <v>1092</v>
       </c>
       <c r="C143" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D143" t="s">
         <v>143</v>
@@ -27379,7 +27370,7 @@
         <v>1094</v>
       </c>
       <c r="C144" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D144" t="s">
         <v>143</v>
@@ -27414,7 +27405,7 @@
         <v>1094</v>
       </c>
       <c r="C145" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D145" t="s">
         <v>143</v>
@@ -27446,7 +27437,7 @@
         <v>1095</v>
       </c>
       <c r="C146" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D146" t="s">
         <v>147</v>
@@ -27463,7 +27454,7 @@
         <v>1095</v>
       </c>
       <c r="C147" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D147" t="s">
         <v>143</v>
@@ -27495,7 +27486,7 @@
         <v>1095</v>
       </c>
       <c r="C148" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D148" t="s">
         <v>143</v>
@@ -27521,7 +27512,7 @@
         <v>1095</v>
       </c>
       <c r="C149" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D149" t="s">
         <v>147</v>
@@ -27541,7 +27532,7 @@
         <v>1096</v>
       </c>
       <c r="C150" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D150" t="s">
         <v>143</v>
@@ -27564,7 +27555,7 @@
         <v>1096</v>
       </c>
       <c r="C151" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D151" t="s">
         <v>143</v>
@@ -27599,7 +27590,7 @@
         <v>1947</v>
       </c>
       <c r="C152" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D152" t="s">
         <v>143</v>
@@ -27628,7 +27619,7 @@
         <v>1948</v>
       </c>
       <c r="C153" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D153" t="s">
         <v>143</v>
@@ -27649,7 +27640,7 @@
         <v>1.96</v>
       </c>
       <c r="O153" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Y153">
         <v>4</v>
@@ -27663,7 +27654,7 @@
         <v>1948</v>
       </c>
       <c r="C154" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D154" t="s">
         <v>143</v>
@@ -27701,7 +27692,7 @@
         <v>1948</v>
       </c>
       <c r="C155" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D155" t="s">
         <v>147</v>
@@ -27715,7 +27706,7 @@
         <v>1949</v>
       </c>
       <c r="C156" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D156" t="s">
         <v>143</v>
@@ -27744,7 +27735,7 @@
         <v>1949</v>
       </c>
       <c r="C157" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D157" t="s">
         <v>143</v>
@@ -27767,7 +27758,7 @@
         <v>1950</v>
       </c>
       <c r="C158" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D158" t="s">
         <v>143</v>
@@ -27796,13 +27787,13 @@
         <v>1952</v>
       </c>
       <c r="C159" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D159" t="s">
         <v>143</v>
       </c>
       <c r="E159" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G159">
         <v>25</v>
@@ -27855,13 +27846,13 @@
         <v>1952</v>
       </c>
       <c r="C160" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D160" t="s">
         <v>143</v>
       </c>
       <c r="E160" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I160" t="s">
         <v>143</v>
@@ -27914,13 +27905,13 @@
         <v>1953</v>
       </c>
       <c r="C161" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D161" t="s">
         <v>143</v>
       </c>
       <c r="E161" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G161">
         <v>25</v>
@@ -27976,7 +27967,7 @@
         <v>1953</v>
       </c>
       <c r="C162" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J162" t="s">
         <v>143</v>
@@ -27993,7 +27984,7 @@
         <v>1953</v>
       </c>
       <c r="C163" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D163" t="s">
         <v>147</v>
@@ -28007,13 +27998,13 @@
         <v>2084</v>
       </c>
       <c r="C164" t="s">
+        <v>916</v>
+      </c>
+      <c r="D164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E164" t="s">
         <v>917</v>
-      </c>
-      <c r="D164" t="s">
-        <v>147</v>
-      </c>
-      <c r="E164" t="s">
-        <v>918</v>
       </c>
       <c r="F164">
         <v>211000</v>
@@ -28036,13 +28027,13 @@
         <v>2085</v>
       </c>
       <c r="C165" t="s">
+        <v>916</v>
+      </c>
+      <c r="D165" t="s">
+        <v>143</v>
+      </c>
+      <c r="E165" t="s">
         <v>917</v>
-      </c>
-      <c r="D165" t="s">
-        <v>143</v>
-      </c>
-      <c r="E165" t="s">
-        <v>918</v>
       </c>
       <c r="I165" t="s">
         <v>143</v>
@@ -28059,13 +28050,13 @@
         <v>2086</v>
       </c>
       <c r="C166" t="s">
+        <v>916</v>
+      </c>
+      <c r="D166" t="s">
+        <v>147</v>
+      </c>
+      <c r="E166" t="s">
         <v>917</v>
-      </c>
-      <c r="D166" t="s">
-        <v>147</v>
-      </c>
-      <c r="E166" t="s">
-        <v>918</v>
       </c>
       <c r="I166" t="s">
         <v>143</v>
@@ -28085,7 +28076,7 @@
         <v>3958</v>
       </c>
       <c r="C167" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D167" t="s">
         <v>143</v>
@@ -28111,7 +28102,7 @@
         <v>3958</v>
       </c>
       <c r="C168" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D168" t="s">
         <v>143</v>
@@ -28140,7 +28131,7 @@
         <v>3958</v>
       </c>
       <c r="C169" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="170" spans="1:25">
@@ -28151,7 +28142,7 @@
         <v>3958</v>
       </c>
       <c r="C170" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="171" spans="1:25">
@@ -28162,7 +28153,7 @@
         <v>3958</v>
       </c>
       <c r="C171" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -28173,7 +28164,7 @@
         <v>6394</v>
       </c>
       <c r="C172" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D172" t="s">
         <v>143</v>
@@ -28203,7 +28194,7 @@
         <v>143</v>
       </c>
       <c r="O172" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="P172" t="s">
         <v>147</v>
@@ -28241,7 +28232,7 @@
         <v>6394</v>
       </c>
       <c r="C173" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D173" t="s">
         <v>143</v>
@@ -28300,7 +28291,7 @@
         <v>6394</v>
       </c>
       <c r="C174" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D174" t="s">
         <v>147</v>
@@ -28356,7 +28347,7 @@
         <v>6987</v>
       </c>
       <c r="C175" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G175">
         <v>25</v>
@@ -28370,7 +28361,7 @@
         <v>6987</v>
       </c>
       <c r="C176" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J176" t="s">
         <v>143</v>
@@ -28411,7 +28402,7 @@
         <v>6987</v>
       </c>
       <c r="C177" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D177" t="s">
         <v>147</v>
@@ -28455,13 +28446,13 @@
         <v>6988</v>
       </c>
       <c r="C178" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D178" t="s">
         <v>143</v>
       </c>
       <c r="E178" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J178" t="s">
         <v>143</v>
@@ -28478,7 +28469,7 @@
         <v>6994</v>
       </c>
       <c r="C179" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D179" t="s">
         <v>143</v>
@@ -28498,13 +28489,13 @@
         <v>6996</v>
       </c>
       <c r="C180" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D180" t="s">
         <v>143</v>
       </c>
       <c r="E180" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="181" spans="1:25">
@@ -28515,7 +28506,7 @@
         <v>7002</v>
       </c>
       <c r="C181" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D181" t="s">
         <v>143</v>
@@ -28535,7 +28526,7 @@
         <v>7283</v>
       </c>
       <c r="C182" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="183" spans="1:25">
@@ -28546,7 +28537,7 @@
         <v>7283</v>
       </c>
       <c r="C183" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="184" spans="1:25">
@@ -28557,13 +28548,13 @@
         <v>7889</v>
       </c>
       <c r="C184" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D184" t="s">
         <v>143</v>
       </c>
       <c r="E184" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N184" t="s">
         <v>143</v>
@@ -28577,13 +28568,13 @@
         <v>7891</v>
       </c>
       <c r="C185" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D185" t="s">
         <v>143</v>
       </c>
       <c r="E185" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J185" t="s">
         <v>143</v>
@@ -28600,7 +28591,7 @@
         <v>7893</v>
       </c>
       <c r="C186" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D186" t="s">
         <v>143</v>
@@ -28620,7 +28611,7 @@
         <v>7896</v>
       </c>
       <c r="C187" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D187" t="s">
         <v>143</v>
@@ -28640,7 +28631,7 @@
         <v>7898</v>
       </c>
       <c r="C188" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D188" t="s">
         <v>143</v>
@@ -28657,7 +28648,7 @@
         <v>7911</v>
       </c>
       <c r="C189" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D189" t="s">
         <v>143</v>
@@ -28677,7 +28668,7 @@
         <v>7912</v>
       </c>
       <c r="C190" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D190" t="s">
         <v>143</v>
@@ -28703,7 +28694,7 @@
         <v>7912</v>
       </c>
       <c r="C191" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="192" spans="1:25">
@@ -28714,7 +28705,7 @@
         <v>7913</v>
       </c>
       <c r="C192" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J192" t="s">
         <v>143</v>
@@ -28731,13 +28722,13 @@
         <v>7932</v>
       </c>
       <c r="C193" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D193" t="s">
         <v>143</v>
       </c>
       <c r="E193" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N193" t="s">
         <v>143</v>
@@ -28751,13 +28742,13 @@
         <v>7935</v>
       </c>
       <c r="C194" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D194" t="s">
         <v>143</v>
       </c>
       <c r="E194" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J194" t="s">
         <v>143</v>
@@ -28774,7 +28765,7 @@
         <v>8070</v>
       </c>
       <c r="C195" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D195" t="s">
         <v>143</v>
@@ -28797,7 +28788,7 @@
         <v>8072</v>
       </c>
       <c r="C196" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D196" t="s">
         <v>143</v>
@@ -28817,10 +28808,10 @@
         <v>8075</v>
       </c>
       <c r="C197" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E197" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="198" spans="1:25">
@@ -28831,7 +28822,7 @@
         <v>8112</v>
       </c>
       <c r="C198" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D198" t="s">
         <v>143</v>
@@ -28845,13 +28836,13 @@
         <v>8229</v>
       </c>
       <c r="C199" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D199" t="s">
         <v>143</v>
       </c>
       <c r="E199" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N199" t="s">
         <v>143</v>
@@ -28865,13 +28856,13 @@
         <v>8311</v>
       </c>
       <c r="C200" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D200" t="s">
         <v>143</v>
       </c>
       <c r="E200" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J200" t="s">
         <v>143</v>
@@ -28888,7 +28879,7 @@
         <v>8312</v>
       </c>
       <c r="C201" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N201" t="s">
         <v>143</v>
@@ -28902,7 +28893,7 @@
         <v>8315</v>
       </c>
       <c r="C202" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D202" t="s">
         <v>143</v>
@@ -28922,7 +28913,7 @@
         <v>8316</v>
       </c>
       <c r="C203" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D203" t="s">
         <v>143</v>
@@ -28939,7 +28930,7 @@
         <v>8317</v>
       </c>
       <c r="C204" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D204" t="s">
         <v>143</v>
@@ -28959,7 +28950,7 @@
         <v>8318</v>
       </c>
       <c r="C205" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D205" t="s">
         <v>143</v>
@@ -28973,10 +28964,10 @@
         <v>8322</v>
       </c>
       <c r="C206" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E206" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G206">
         <v>9</v>
@@ -28999,7 +28990,7 @@
         <v>8325</v>
       </c>
       <c r="C207" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D207" t="s">
         <v>143</v>
@@ -29022,7 +29013,7 @@
         <v>8329</v>
       </c>
       <c r="C208" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G208">
         <v>10</v>
@@ -29039,10 +29030,10 @@
         <v>8379</v>
       </c>
       <c r="C209" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E209" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="210" spans="1:25">
@@ -29053,7 +29044,7 @@
         <v>8380</v>
       </c>
       <c r="C210" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -29073,10 +29064,10 @@
         <v>8381</v>
       </c>
       <c r="C211" t="s">
+        <v>916</v>
+      </c>
+      <c r="E211" t="s">
         <v>917</v>
-      </c>
-      <c r="E211" t="s">
-        <v>918</v>
       </c>
       <c r="I211" t="s">
         <v>143</v>
@@ -29093,13 +29084,13 @@
         <v>8496</v>
       </c>
       <c r="C212" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D212" t="s">
         <v>143</v>
       </c>
       <c r="E212" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N212" t="s">
         <v>143</v>
@@ -29113,7 +29104,7 @@
         <v>8498</v>
       </c>
       <c r="C213" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D213" t="s">
         <v>143</v>
@@ -29133,7 +29124,7 @@
         <v>8499</v>
       </c>
       <c r="C214" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D214" t="s">
         <v>143</v>
@@ -29150,13 +29141,13 @@
         <v>8500</v>
       </c>
       <c r="C215" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D215" t="s">
         <v>143</v>
       </c>
       <c r="E215" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J215" t="s">
         <v>143</v>
@@ -29173,13 +29164,13 @@
         <v>8501</v>
       </c>
       <c r="C216" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D216" t="s">
         <v>143</v>
       </c>
       <c r="E216" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J216" t="s">
         <v>143</v>
@@ -29193,10 +29184,10 @@
         <v>8578</v>
       </c>
       <c r="C217" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E217" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="218" spans="1:25">
@@ -29207,7 +29198,7 @@
         <v>8581</v>
       </c>
       <c r="C218" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D218" t="s">
         <v>143</v>
@@ -29227,13 +29218,13 @@
         <v>8626</v>
       </c>
       <c r="C219" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D219" t="s">
         <v>143</v>
       </c>
       <c r="E219" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J219" t="s">
         <v>143</v>
@@ -29250,13 +29241,13 @@
         <v>8634</v>
       </c>
       <c r="C220" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D220" t="s">
         <v>147</v>
       </c>
       <c r="E220" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J220" t="s">
         <v>143</v>
@@ -29273,13 +29264,13 @@
         <v>8637</v>
       </c>
       <c r="C221" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D221" t="s">
         <v>143</v>
       </c>
       <c r="E221" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J221" t="s">
         <v>143</v>
@@ -29296,13 +29287,13 @@
         <v>9940</v>
       </c>
       <c r="C222" t="s">
+        <v>916</v>
+      </c>
+      <c r="D222" t="s">
+        <v>147</v>
+      </c>
+      <c r="E222" t="s">
         <v>917</v>
-      </c>
-      <c r="D222" t="s">
-        <v>147</v>
-      </c>
-      <c r="E222" t="s">
-        <v>918</v>
       </c>
       <c r="J222" t="s">
         <v>143</v>
@@ -29319,13 +29310,13 @@
         <v>9941</v>
       </c>
       <c r="C223" t="s">
+        <v>916</v>
+      </c>
+      <c r="D223" t="s">
+        <v>147</v>
+      </c>
+      <c r="E223" t="s">
         <v>917</v>
-      </c>
-      <c r="D223" t="s">
-        <v>147</v>
-      </c>
-      <c r="E223" t="s">
-        <v>918</v>
       </c>
       <c r="I223" t="s">
         <v>143</v>
@@ -29354,13 +29345,13 @@
         <v>9942</v>
       </c>
       <c r="C224" t="s">
+        <v>916</v>
+      </c>
+      <c r="D224" t="s">
+        <v>147</v>
+      </c>
+      <c r="E224" t="s">
         <v>917</v>
-      </c>
-      <c r="D224" t="s">
-        <v>147</v>
-      </c>
-      <c r="E224" t="s">
-        <v>918</v>
       </c>
       <c r="I224" t="s">
         <v>143</v>
@@ -29389,13 +29380,13 @@
         <v>9943</v>
       </c>
       <c r="C225" t="s">
+        <v>916</v>
+      </c>
+      <c r="D225" t="s">
+        <v>147</v>
+      </c>
+      <c r="E225" t="s">
         <v>917</v>
-      </c>
-      <c r="D225" t="s">
-        <v>147</v>
-      </c>
-      <c r="E225" t="s">
-        <v>918</v>
       </c>
       <c r="I225" t="s">
         <v>143</v>
@@ -29427,10 +29418,10 @@
         <v>9947</v>
       </c>
       <c r="C226" t="s">
+        <v>916</v>
+      </c>
+      <c r="E226" t="s">
         <v>917</v>
-      </c>
-      <c r="E226" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="227" spans="1:25">
@@ -29441,10 +29432,10 @@
         <v>9948</v>
       </c>
       <c r="C227" t="s">
+        <v>916</v>
+      </c>
+      <c r="E227" t="s">
         <v>917</v>
-      </c>
-      <c r="E227" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="228" spans="1:25">
@@ -29455,10 +29446,10 @@
         <v>9949</v>
       </c>
       <c r="C228" t="s">
+        <v>916</v>
+      </c>
+      <c r="E228" t="s">
         <v>917</v>
-      </c>
-      <c r="E228" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="229" spans="1:25">
@@ -29469,10 +29460,10 @@
         <v>9951</v>
       </c>
       <c r="C229" t="s">
+        <v>916</v>
+      </c>
+      <c r="E229" t="s">
         <v>917</v>
-      </c>
-      <c r="E229" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="230" spans="1:25">
@@ -29483,10 +29474,10 @@
         <v>9952</v>
       </c>
       <c r="C230" t="s">
+        <v>916</v>
+      </c>
+      <c r="E230" t="s">
         <v>917</v>
-      </c>
-      <c r="E230" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="231" spans="1:25">
@@ -29497,10 +29488,10 @@
         <v>9953</v>
       </c>
       <c r="C231" t="s">
+        <v>916</v>
+      </c>
+      <c r="E231" t="s">
         <v>917</v>
-      </c>
-      <c r="E231" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="232" spans="1:25">
@@ -29511,10 +29502,10 @@
         <v>9955</v>
       </c>
       <c r="C232" t="s">
+        <v>916</v>
+      </c>
+      <c r="E232" t="s">
         <v>917</v>
-      </c>
-      <c r="E232" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="233" spans="1:25">
@@ -29525,10 +29516,10 @@
         <v>9956</v>
       </c>
       <c r="C233" t="s">
+        <v>916</v>
+      </c>
+      <c r="E233" t="s">
         <v>917</v>
-      </c>
-      <c r="E233" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="234" spans="1:25">
@@ -29539,10 +29530,10 @@
         <v>9957</v>
       </c>
       <c r="C234" t="s">
+        <v>916</v>
+      </c>
+      <c r="E234" t="s">
         <v>917</v>
-      </c>
-      <c r="E234" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="235" spans="1:25">
@@ -29553,10 +29544,10 @@
         <v>9958</v>
       </c>
       <c r="C235" t="s">
+        <v>916</v>
+      </c>
+      <c r="E235" t="s">
         <v>917</v>
-      </c>
-      <c r="E235" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="236" spans="1:25">
@@ -29567,10 +29558,10 @@
         <v>9959</v>
       </c>
       <c r="C236" t="s">
+        <v>916</v>
+      </c>
+      <c r="E236" t="s">
         <v>917</v>
-      </c>
-      <c r="E236" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="237" spans="1:25">
@@ -29581,10 +29572,10 @@
         <v>9961</v>
       </c>
       <c r="C237" t="s">
+        <v>916</v>
+      </c>
+      <c r="E237" t="s">
         <v>917</v>
-      </c>
-      <c r="E237" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="238" spans="1:25">
@@ -29595,10 +29586,10 @@
         <v>9962</v>
       </c>
       <c r="C238" t="s">
+        <v>916</v>
+      </c>
+      <c r="E238" t="s">
         <v>917</v>
-      </c>
-      <c r="E238" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="239" spans="1:25">
@@ -29609,10 +29600,10 @@
         <v>9963</v>
       </c>
       <c r="C239" t="s">
+        <v>916</v>
+      </c>
+      <c r="E239" t="s">
         <v>917</v>
-      </c>
-      <c r="E239" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="240" spans="1:25">
@@ -29623,13 +29614,13 @@
         <v>10223</v>
       </c>
       <c r="C240" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D240" t="s">
         <v>143</v>
       </c>
       <c r="E240" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F240">
         <v>30</v>
@@ -29667,13 +29658,13 @@
         <v>10224</v>
       </c>
       <c r="C241" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D241" t="s">
         <v>143</v>
       </c>
       <c r="E241" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F241">
         <v>55</v>
@@ -29708,13 +29699,13 @@
         <v>10231</v>
       </c>
       <c r="C242" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D242" t="s">
         <v>143</v>
       </c>
       <c r="E242" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F242">
         <v>315</v>
@@ -29752,7 +29743,7 @@
         <v>10232</v>
       </c>
       <c r="C243" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F243">
         <v>45</v>
@@ -29808,14 +29799,14 @@
         <v>10238</v>
       </c>
       <c r="C244" t="s">
+        <v>916</v>
+      </c>
+      <c r="D244" t="s">
+        <v>147</v>
+      </c>
+      <c r="E244" t="s">
         <v>917</v>
       </c>
-      <c r="D244" t="s">
-        <v>147</v>
-      </c>
-      <c r="E244" t="s">
-        <v>918</v>
-      </c>
       <c r="I244" t="s">
         <v>143</v>
       </c>
@@ -29826,7 +29817,7 @@
         <v>147</v>
       </c>
       <c r="O244" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Y244">
         <v>0</v>
@@ -29840,7 +29831,7 @@
         <v>10504</v>
       </c>
       <c r="C245" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D245" t="s">
         <v>143</v>
@@ -29854,7 +29845,7 @@
         <v>10505</v>
       </c>
       <c r="C246" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D246" t="s">
         <v>147</v>
@@ -29868,7 +29859,7 @@
         <v>10506</v>
       </c>
       <c r="C247" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D247" t="s">
         <v>147</v>
@@ -29882,7 +29873,7 @@
         <v>10507</v>
       </c>
       <c r="C248" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D248" t="s">
         <v>147</v>
@@ -29896,7 +29887,7 @@
         <v>10508</v>
       </c>
       <c r="C249" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D249" t="s">
         <v>147</v>
@@ -29910,7 +29901,7 @@
         <v>10509</v>
       </c>
       <c r="C250" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D250" t="s">
         <v>147</v>
@@ -29924,7 +29915,7 @@
         <v>10510</v>
       </c>
       <c r="C251" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D251" t="s">
         <v>147</v>
